--- a/数据整理/stocks/港股/03900-绿城中国.xlsx
+++ b/数据整理/stocks/港股/03900-绿城中国.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -621,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,17 +633,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -652,13 +673,521 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2552</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03900-绿城中国.xlsx
+++ b/数据整理/stocks/港股/03900-绿城中国.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.3</v>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1180</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1181,13 +1224,1105 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1025</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013759</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014014</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014015</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商臻选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013760</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>69.61</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.59</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03900-绿城中国.xlsx
+++ b/数据整理/stocks/港股/03900-绿城中国.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>7.02</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -532,6 +549,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005847</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0673</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4766</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009983</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢港股通品质生活慧选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007455</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010583</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国蓝筹精选股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3023</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2301</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011315</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢港股通优质成长一年混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011117</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深业绩驱动混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012530</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢惠添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>67.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1649,7 +2824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2161,7 +3336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03900-绿城中国.xlsx
+++ b/数据整理/stocks/港股/03900-绿城中国.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>7.42</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>7.02</v>
+        <v>7.42</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -549,6 +566,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013992</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧港股通精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>016570</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>016298</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016297</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧丰泰港股通混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>016571</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实价值丰润混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>63.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1706,7 +2387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2824,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3336,7 +4017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
